--- a/output/BAHIA_23732231000195.xlsx
+++ b/output/BAHIA_23732231000195.xlsx
@@ -1054,10 +1054,10 @@
         <v>44165</v>
       </c>
       <c r="B61">
-        <v>1.0843675</v>
+        <v>1.0831199</v>
       </c>
       <c r="C61">
-        <v>0.06503040958579098</v>
+        <v>0.06439293469760576</v>
       </c>
     </row>
   </sheetData>

--- a/output/BAHIA_23732231000195.xlsx
+++ b/output/BAHIA_23732231000195.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BAHIA AM LONG BIASED FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,678 +383,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42369</v>
       </c>
       <c r="B2">
-        <v>0.0004436000000000995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42400</v>
       </c>
       <c r="B3">
-        <v>0.02510020000000002</v>
-      </c>
-      <c r="C3">
         <v>0.02464566718203787</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42429</v>
       </c>
       <c r="B4">
-        <v>0.04459820000000003</v>
-      </c>
-      <c r="C4">
         <v>0.01902057964675063</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42460</v>
       </c>
       <c r="B5">
-        <v>0.05924160000000001</v>
-      </c>
-      <c r="C5">
         <v>0.0140182129358446</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42490</v>
       </c>
       <c r="B6">
-        <v>0.09622789999999992</v>
-      </c>
-      <c r="C6">
         <v>0.03491771848839775</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42521</v>
       </c>
       <c r="B7">
-        <v>0.04195609999999994</v>
-      </c>
-      <c r="C7">
         <v>-0.04950777114868177</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42551</v>
       </c>
       <c r="B8">
-        <v>0.06899670000000002</v>
-      </c>
-      <c r="C8">
         <v>0.02595176514634367</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42582</v>
       </c>
       <c r="B9">
-        <v>0.1499763999999999</v>
-      </c>
-      <c r="C9">
         <v>0.07575299343767838</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42613</v>
       </c>
       <c r="B10">
-        <v>0.1621546</v>
-      </c>
-      <c r="C10">
         <v>0.01058995645475869</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42643</v>
       </c>
       <c r="B11">
-        <v>0.1706786</v>
-      </c>
-      <c r="C11">
         <v>0.007334652377575246</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42674</v>
       </c>
       <c r="B12">
-        <v>0.2692467000000001</v>
-      </c>
-      <c r="C12">
         <v>0.08419740482144289</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42704</v>
       </c>
       <c r="B13">
-        <v>0.2407877</v>
-      </c>
-      <c r="C13">
         <v>-0.02242196099465932</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42735</v>
       </c>
       <c r="B14">
-        <v>0.2293113</v>
-      </c>
-      <c r="C14">
         <v>-0.009249285756137038</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42766</v>
       </c>
       <c r="B15">
-        <v>0.2950526</v>
-      </c>
-      <c r="C15">
         <v>0.05347815480098483</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42794</v>
       </c>
       <c r="B16">
-        <v>0.3362586999999999</v>
-      </c>
-      <c r="C16">
         <v>0.03181808985982504</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42825</v>
       </c>
       <c r="B17">
-        <v>0.3262119000000001</v>
-      </c>
-      <c r="C17">
         <v>-0.007518603994870032</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42855</v>
       </c>
       <c r="B18">
-        <v>0.3396342999999999</v>
-      </c>
-      <c r="C18">
         <v>0.01012085625230763</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42886</v>
       </c>
       <c r="B19">
-        <v>0.2918510000000001</v>
-      </c>
-      <c r="C19">
         <v>-0.03566891352363843</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42916</v>
       </c>
       <c r="B20">
-        <v>0.2911238</v>
-      </c>
-      <c r="C20">
         <v>-0.0005629132152237259</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42947</v>
       </c>
       <c r="B21">
-        <v>0.3582706</v>
-      </c>
-      <c r="C21">
         <v>0.05200647683823956</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42978</v>
       </c>
       <c r="B22">
-        <v>0.4257346</v>
-      </c>
-      <c r="C22">
         <v>0.04966904238374892</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43008</v>
       </c>
       <c r="B23">
-        <v>0.4962359000000001</v>
-      </c>
-      <c r="C23">
         <v>0.04944910504381395</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43039</v>
       </c>
       <c r="B24">
-        <v>0.4983664000000001</v>
-      </c>
-      <c r="C24">
         <v>0.001423906484264936</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43069</v>
       </c>
       <c r="B25">
-        <v>0.4377245000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.04047201005041223</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43100</v>
       </c>
       <c r="B26">
-        <v>0.5006632</v>
-      </c>
-      <c r="C26">
         <v>0.0437766067142904</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43131</v>
       </c>
       <c r="B27">
-        <v>0.6072968000000001</v>
-      </c>
-      <c r="C27">
         <v>0.07105764971114104</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43159</v>
       </c>
       <c r="B28">
-        <v>0.6610954</v>
-      </c>
-      <c r="C28">
         <v>0.03347147832310737</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43190</v>
       </c>
       <c r="B29">
-        <v>0.6683314</v>
-      </c>
-      <c r="C29">
         <v>0.004356161602759201</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43220</v>
       </c>
       <c r="B30">
-        <v>0.7073073999999999</v>
-      </c>
-      <c r="C30">
         <v>0.02336226483539172</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43251</v>
       </c>
       <c r="B31">
-        <v>0.6205928000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.05079026776314555</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43281</v>
       </c>
       <c r="B32">
-        <v>0.6073496</v>
-      </c>
-      <c r="C32">
         <v>-0.00817182453235632</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43312</v>
       </c>
       <c r="B33">
-        <v>0.6969543</v>
-      </c>
-      <c r="C33">
         <v>0.05574686427893472</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43343</v>
       </c>
       <c r="B34">
-        <v>0.6664861</v>
-      </c>
-      <c r="C34">
         <v>-0.01795463790627716</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43373</v>
       </c>
       <c r="B35">
-        <v>0.7015197</v>
-      </c>
-      <c r="C35">
         <v>0.02102243757088651</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43404</v>
       </c>
       <c r="B36">
-        <v>0.7853371</v>
-      </c>
-      <c r="C36">
         <v>0.04926031711534118</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43434</v>
       </c>
       <c r="B37">
-        <v>0.8284562</v>
-      </c>
-      <c r="C37">
         <v>0.02415179743926221</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43465</v>
       </c>
       <c r="B38">
-        <v>0.8172429000000001</v>
-      </c>
-      <c r="C38">
         <v>-0.006132659890895842</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43496</v>
       </c>
       <c r="B39">
-        <v>0.9281998</v>
-      </c>
-      <c r="C39">
         <v>0.06105782556641159</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43524</v>
       </c>
       <c r="B40">
-        <v>0.9149255000000001</v>
-      </c>
-      <c r="C40">
         <v>-0.00688429694889503</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43555</v>
       </c>
       <c r="B41">
-        <v>0.9343386</v>
-      </c>
-      <c r="C41">
         <v>0.01013778342812821</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43585</v>
       </c>
       <c r="B42">
-        <v>0.9250556000000001</v>
-      </c>
-      <c r="C42">
         <v>-0.004799056380304867</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43616</v>
       </c>
       <c r="B43">
-        <v>0.9567502999999999</v>
-      </c>
-      <c r="C43">
         <v>0.01646430368037155</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43646</v>
       </c>
       <c r="B44">
-        <v>1.0378178</v>
-      </c>
-      <c r="C44">
         <v>0.04142966018709693</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43677</v>
       </c>
       <c r="B45">
-        <v>1.0495424</v>
-      </c>
-      <c r="C45">
         <v>0.005753507501995436</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43708</v>
       </c>
       <c r="B46">
-        <v>1.0379585</v>
-      </c>
-      <c r="C46">
         <v>-0.005651944551135046</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43738</v>
       </c>
       <c r="B47">
-        <v>1.0896356</v>
-      </c>
-      <c r="C47">
         <v>0.02535728769746792</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43769</v>
       </c>
       <c r="B48">
-        <v>1.1407765</v>
-      </c>
-      <c r="C48">
         <v>0.02447359721474895</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43799</v>
       </c>
       <c r="B49">
-        <v>1.1477071</v>
-      </c>
-      <c r="C49">
         <v>0.003237423430236586</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43830</v>
       </c>
       <c r="B50">
-        <v>1.2968194</v>
-      </c>
-      <c r="C50">
         <v>0.06942860132091577</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43861</v>
       </c>
       <c r="B51">
-        <v>1.2990278</v>
-      </c>
-      <c r="C51">
         <v>0.0009615035470356137</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43890</v>
       </c>
       <c r="B52">
-        <v>1.1574645</v>
-      </c>
-      <c r="C52">
         <v>-0.06157528847628557</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43921</v>
       </c>
       <c r="B53">
-        <v>0.5106545</v>
-      </c>
-      <c r="C53">
         <v>-0.2998009932492517</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43951</v>
       </c>
       <c r="B54">
-        <v>0.6404593999999999</v>
-      </c>
-      <c r="C54">
         <v>0.08592626573448792</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43982</v>
       </c>
       <c r="B55">
-        <v>0.7561779</v>
-      </c>
-      <c r="C55">
         <v>0.07054030108882925</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44012</v>
       </c>
       <c r="B56">
-        <v>0.8859249</v>
-      </c>
-      <c r="C56">
         <v>0.07388032841092018</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44043</v>
       </c>
       <c r="B57">
-        <v>1.0743589</v>
-      </c>
-      <c r="C57">
         <v>0.09991596165891869</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>44074</v>
       </c>
       <c r="B58">
-        <v>1.0234874</v>
-      </c>
-      <c r="C58">
         <v>-0.02452396256019151</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>44104</v>
       </c>
       <c r="B59">
-        <v>0.9450558</v>
-      </c>
-      <c r="C59">
         <v>-0.03876060705888262</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44135</v>
       </c>
       <c r="B60">
-        <v>0.9570966999999999</v>
-      </c>
-      <c r="C60">
         <v>0.006190516488010278</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44165</v>
       </c>
       <c r="B61">
-        <v>1.0831199</v>
-      </c>
-      <c r="C61">
-        <v>0.06439293469760576</v>
+        <v>0.04620635250164185</v>
       </c>
     </row>
   </sheetData>
